--- a/JeTrix/evidence.xlsx
+++ b/JeTrix/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GON\JeTrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9804022D-1D5C-455F-9509-539417074793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA266009-6F55-4496-AE16-D252418F5978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="3210" windowWidth="22455" windowHeight="15345" tabRatio="500" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>TeamName</t>
   </si>
@@ -81,36 +81,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
@@ -148,13 +124,103 @@
   </si>
   <si>
     <t>JeTrix</t>
+  </si>
+  <si>
+    <t>28248D19B7AF06CC75CC0123D9B8223CE1AED5EA92B7928097A67C79B4F391C9</t>
+  </si>
+  <si>
+    <t>jetrixgon</t>
+  </si>
+  <si>
+    <t>92809060F1B2581EA759A116D47BBE2526DBB8ABB5FA9C8E0FA2B4939535CC1D</t>
+  </si>
+  <si>
+    <t>62113531B7B8C6A02F70C7EDC49EE43EE166E80DCA134E6C15FE6428AACAC394</t>
+  </si>
+  <si>
+    <t>DC4107C7EEB57C5776FD7EC13371EF28D2953EA77670E0070EC9E579606ED41B</t>
+  </si>
+  <si>
+    <t>91448456F2FCCC531EB7C7B447BF40A6F084B075D4B697DEAC2DC8F934E398A9</t>
+  </si>
+  <si>
+    <t>id004</t>
+  </si>
+  <si>
+    <t>id001</t>
+  </si>
+  <si>
+    <t>id002</t>
+  </si>
+  <si>
+    <t>id003</t>
+  </si>
+  <si>
+    <t>A3C3EE66E4E5B8EA6E68A0624DCFC6A977916B010D73FB6ECCB0290EFA5BD3D1</t>
+  </si>
+  <si>
+    <t>ibc/59E1A197F28953EEF0C9DBA7558F54AF4B402D81D1D7D624D4FEE2370FAEC2DE</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>5A4B5406F6262C45A19C8DC137CCD23B9B2D290F41D6811A6187F10C40B8E249</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>B08339BD442ED0226EC4B93B54B0465AE9FA5E48AD3DF8E2DDB9B98A5BF85D01</t>
+  </si>
+  <si>
+    <t>stars1kk0ygp92qu02ggk3p0ma37l63cs8vl2455lkgqcka6uxc8dcl7hqx2jvgp</t>
+  </si>
+  <si>
+    <t>B42393FD25BC6BD918AE6BEFA9024F349AEA691DF6D0398D109AC373A428A8DE</t>
+  </si>
+  <si>
+    <t>ibc/70037D14CA042F6D8A6ACC629928769BD6671E11074044637394201F67362836</t>
+  </si>
+  <si>
+    <t>ibc/D7939A49DD44FF287F2B01245E81C4BEB72C80D2718F9FFCCA0629267778E0CF</t>
+  </si>
+  <si>
+    <t>ibc/556C9C1CF0549675B455B7957BCF119F85BF831F2448E0CDFE78501AA12BA0CB</t>
+  </si>
+  <si>
+    <t>ibc/7D0EA81DBCC215F12E35B3511AE2E1DACC7CA7E320303874BD44AAD89AF73E1D</t>
+  </si>
+  <si>
+    <t>ibc/4E040BDC84BCE96577641067E8C9D721D60290694E210FC7CE627C11B1C184B4</t>
+  </si>
+  <si>
+    <t>ibc/E7F264CF9B6CF5EAEC3037669B87A3604537030273B6F0EF50BAB421C46BFA45</t>
+  </si>
+  <si>
+    <t>jetrixnft7</t>
+  </si>
+  <si>
+    <t>jetrixnft8</t>
+  </si>
+  <si>
+    <t>jetrixnft9</t>
+  </si>
+  <si>
+    <t>jetrixnft10</t>
+  </si>
+  <si>
+    <t>jetrixnft11</t>
+  </si>
+  <si>
+    <t>jetrixnft12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,6 +237,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -223,21 +296,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -622,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -666,28 +742,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,15 +791,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -732,9 +810,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -747,16 +827,20 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -768,7 +852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -781,15 +867,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -815,15 +903,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,25 +937,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -893,25 +981,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -937,25 +1025,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -981,25 +1069,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1025,25 +1113,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1069,25 +1157,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,16 +1206,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1146,25 +1236,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1190,25 +1280,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1235,12 +1325,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1267,12 +1357,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1299,12 +1389,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1331,12 +1421,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1347,9 +1437,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1365,18 +1457,51 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1406,24 +1533,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1453,24 +1582,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1500,24 +1631,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1548,24 +1681,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1591,15 +1726,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1625,15 +1762,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
